--- a/Homework/HW1/Buses.xlsx
+++ b/Homework/HW1/Buses.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\gb\data_base\Homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D725D-8098-4EA1-ADFB-C7A6C69AED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D874C2-9197-4933-8863-85D74F4BEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buses" sheetId="1" r:id="rId1"/>
     <sheet name="Routes" sheetId="3" r:id="rId2"/>
     <sheet name="Routes_addresses" sheetId="5" r:id="rId3"/>
-    <sheet name="Conductor_routes" sheetId="2" r:id="rId4"/>
-    <sheet name="Conductior" sheetId="4" r:id="rId5"/>
+    <sheet name="Conductior" sheetId="4" r:id="rId4"/>
+    <sheet name="Conductor_routes" sheetId="2" r:id="rId5"/>
     <sheet name="Drivers" sheetId="6" r:id="rId6"/>
     <sheet name="Drivers_routes" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">Аэропорт </t>
   </si>
   <si>
-    <t>Лодочная станция</t>
-  </si>
-  <si>
     <t>Автобусное депо</t>
   </si>
   <si>
@@ -247,10 +244,10 @@
     <t>Васильев Василий Васильевич</t>
   </si>
   <si>
-    <t>Зимняя Резина</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Стоит Зимняя Резина</t>
   </si>
 </sst>
 </file>
@@ -629,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +637,7 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -670,7 +668,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -691,12 +689,12 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -720,7 +718,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -744,7 +742,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -768,7 +766,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -789,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +819,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -829,7 +827,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -837,7 +835,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -845,7 +843,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -853,7 +851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -861,7 +859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -869,7 +867,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -877,7 +875,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -893,7 +891,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -908,9 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91AB57F-A4F2-4350-9E3B-14CC1F969D57}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -946,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
@@ -968,10 +964,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +975,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -991,6 +987,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312B8BA4-36F6-42F2-85C1-70B6EF8E72E1}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2+5</f>
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3">
+        <f>F2+4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C6" si="0">C3+5</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4" si="1">F3+4</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3">
+        <f>F4+6</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F5+8</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B306C8-0D69-476E-B3BB-3B314F63428C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1002,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1010,7 +1157,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -1018,7 +1165,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1026,7 +1173,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -1034,7 +1181,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1042,7 +1189,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1050,7 +1197,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -1058,7 +1205,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -1066,7 +1213,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -1074,7 +1221,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -1082,160 +1229,11 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312B8BA4-36F6-42F2-85C1-70B6EF8E72E1}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3">
-        <f>C2+5</f>
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3">
-        <f>F2+4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C6" si="0">C3+5</f>
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="1">F3+4</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3">
-        <f>F4+6</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3">
-        <f>F5+8</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1257,39 +1255,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3">
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3">
         <v>6</v>
@@ -1297,20 +1295,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <f>C2+7</f>
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3">
         <f>F2+4</f>
@@ -1319,42 +1317,42 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" si="0">C3+7</f>
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="1">F3+4</f>
+        <f t="shared" ref="F4" si="1">F3+4</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3">
         <f>F4+6</f>
@@ -1363,20 +1361,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3">
         <f>F5+8</f>
@@ -1392,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF004F-AD76-47A0-B11C-8F84619F6F3B}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1408,7 +1406,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -1416,7 +1414,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1424,7 +1422,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -1432,7 +1430,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1448,7 +1446,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -1456,7 +1454,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -1464,7 +1462,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -1480,7 +1478,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>

--- a/Homework/HW1/Buses.xlsx
+++ b/Homework/HW1/Buses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\gb\data_base\Homework\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D874C2-9197-4933-8863-85D74F4BEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F3D66-7D6D-44B5-82EB-BF01B95698ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Стоит Зимняя Резина</t>
+  </si>
+  <si>
+    <t>Количество сидячих мест</t>
+  </si>
+  <si>
+    <t>Пиковая вместимость</t>
   </si>
 </sst>
 </file>
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +646,7 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,10 +669,16 @@
         <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -688,11 +700,17 @@
       <c r="G2" s="3">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3">
+        <v>120</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -714,9 +732,15 @@
       <c r="G3" s="3">
         <v>17</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -738,9 +762,15 @@
       <c r="G4" s="3">
         <v>17</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -762,9 +792,15 @@
       <c r="G5" s="3">
         <v>16</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -786,7 +822,13 @@
       <c r="G6" s="3">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3">
+        <v>150</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
